--- a/src/Degradation Curves.xlsx
+++ b/src/Degradation Curves.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prevalonenergy-my.sharepoint.com/personal/himanshu_prevalonenergy_com/Documents/I drive/Sizing Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prevalonenergy-my.sharepoint.com/personal/himanshu_prevalonenergy_com/Documents/I drive/Sizing Tool/DeployWithRender/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{650EDC7B-DF84-4E43-A6A7-4711B3DDD67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB812876-ED54-45A1-8B0E-CAE21402C6D8}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{650EDC7B-DF84-4E43-A6A7-4711B3DDD67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3DCC40C-7410-4CDC-AD42-52B69B115F77}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="11">
   <si>
     <t>Clou AC</t>
   </si>
@@ -128,7 +128,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -404,19 +416,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR33"/>
+  <dimension ref="A1:BA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="BA5" sqref="BA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="44" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="29" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="37" width="20.5703125" customWidth="1"/>
+    <col min="38" max="39" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="20.5703125" customWidth="1"/>
+    <col min="42" max="43" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="20.5703125" customWidth="1"/>
+    <col min="46" max="47" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="20.5703125" customWidth="1"/>
+    <col min="50" max="51" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -529,23 +551,107 @@
         <v>Clou LC | 700 | 2 | 0.5</v>
       </c>
       <c r="AC1" t="str">
-        <f t="shared" ref="AC1:AF1" si="14">AC2&amp;" | "&amp;AC3&amp;" | "&amp;AC4&amp;" | "&amp;AC5</f>
+        <f t="shared" ref="AC1:AM1" si="14">AC2&amp;" | "&amp;AC3&amp;" | "&amp;AC4&amp;" | "&amp;AC5</f>
         <v>Clou LC | 730 | 2 | 0.5</v>
       </c>
       <c r="AD1" t="str">
         <f t="shared" si="14"/>
+        <v>HD 511 | 180 | 2 | 0.5</v>
+      </c>
+      <c r="AE1" t="str">
+        <f t="shared" ref="AE1:AH1" si="15">AE2&amp;" | "&amp;AE3&amp;" | "&amp;AE4&amp;" | "&amp;AE5</f>
         <v>HD 511 | 365 | 2 | 0.5</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AF1" t="str">
+        <f t="shared" si="15"/>
+        <v>HD 511 | 548 | 2 | 0.5</v>
+      </c>
+      <c r="AG1" t="str">
+        <f t="shared" si="15"/>
+        <v>HD 511 | 730 | 2 | 0.5</v>
+      </c>
+      <c r="AH1" t="str">
+        <f t="shared" si="15"/>
+        <v>HD 511 | 180 | 3 | 0.5</v>
+      </c>
+      <c r="AI1" t="str">
+        <f t="shared" ref="AI1:AK1" si="16">AI2&amp;" | "&amp;AI3&amp;" | "&amp;AI4&amp;" | "&amp;AI5</f>
+        <v>HD 511 | 365 | 3 | 0.5</v>
+      </c>
+      <c r="AJ1" t="str">
+        <f t="shared" si="16"/>
+        <v>HD 511 | 548 | 3 | 0.5</v>
+      </c>
+      <c r="AK1" t="str">
+        <f t="shared" si="16"/>
+        <v>HD 511 | 730 | 3 | 0.5</v>
+      </c>
+      <c r="AL1" t="str">
+        <f t="shared" si="14"/>
+        <v>HD 511 | 180 | 4 | 0.5</v>
+      </c>
+      <c r="AM1" t="str">
         <f t="shared" si="14"/>
         <v>HD 511 | 365 | 4 | 0.5</v>
       </c>
-      <c r="AF1" t="str">
-        <f t="shared" si="14"/>
-        <v>HD 511 | 180 | 4 | 0.5</v>
+      <c r="AN1" t="str">
+        <f t="shared" ref="AN1:AQ1" si="17">AN2&amp;" | "&amp;AN3&amp;" | "&amp;AN4&amp;" | "&amp;AN5</f>
+        <v>HD 511 | 548 | 4 | 0.5</v>
+      </c>
+      <c r="AO1" t="str">
+        <f t="shared" si="17"/>
+        <v>HD 511 | 730 | 4 | 0.5</v>
+      </c>
+      <c r="AP1" t="str">
+        <f t="shared" si="17"/>
+        <v>HD 511 | 180 | 5 | 0.5</v>
+      </c>
+      <c r="AQ1" t="str">
+        <f t="shared" si="17"/>
+        <v>HD 511 | 365 | 5 | 0.5</v>
+      </c>
+      <c r="AR1" t="str">
+        <f t="shared" ref="AR1:AU1" si="18">AR2&amp;" | "&amp;AR3&amp;" | "&amp;AR4&amp;" | "&amp;AR5</f>
+        <v>HD 511 | 548 | 5 | 0.5</v>
+      </c>
+      <c r="AS1" t="str">
+        <f t="shared" si="18"/>
+        <v>HD 511 | 730 | 5 | 0.5</v>
+      </c>
+      <c r="AT1" t="str">
+        <f t="shared" si="18"/>
+        <v>HD 511 | 180 | 6 | 0.5</v>
+      </c>
+      <c r="AU1" t="str">
+        <f t="shared" si="18"/>
+        <v>HD 511 | 365 | 6 | 0.5</v>
+      </c>
+      <c r="AV1" t="str">
+        <f t="shared" ref="AV1:AY1" si="19">AV2&amp;" | "&amp;AV3&amp;" | "&amp;AV4&amp;" | "&amp;AV5</f>
+        <v>HD 511 | 548 | 6 | 0.5</v>
+      </c>
+      <c r="AW1" t="str">
+        <f t="shared" si="19"/>
+        <v>HD 511 | 730 | 6 | 0.5</v>
+      </c>
+      <c r="AX1" t="str">
+        <f t="shared" si="19"/>
+        <v>HD 511 | 180 | 8 | 0.5</v>
+      </c>
+      <c r="AY1" t="str">
+        <f t="shared" si="19"/>
+        <v>HD 511 | 365 | 8 | 0.5</v>
+      </c>
+      <c r="AZ1" t="str">
+        <f t="shared" ref="AZ1:BA1" si="20">AZ2&amp;" | "&amp;AZ3&amp;" | "&amp;AZ4&amp;" | "&amp;AZ5</f>
+        <v>HD 511 | 548 | 8 | 0.5</v>
+      </c>
+      <c r="BA1" t="str">
+        <f t="shared" si="20"/>
+        <v>HD 511 | 730 | 8 | 0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -639,12 +745,86 @@
       <c r="AE2" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" t="str">
-        <f>AE2</f>
+      <c r="AF2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" t="str">
+        <f>AL2</f>
         <v>HD 511</v>
       </c>
+      <c r="AN2" t="str">
+        <f>AM2</f>
+        <v>HD 511</v>
+      </c>
+      <c r="AO2" t="str">
+        <f>AN2</f>
+        <v>HD 511</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f>AP2</f>
+        <v>HD 511</v>
+      </c>
+      <c r="AR2" t="str">
+        <f>AQ2</f>
+        <v>HD 511</v>
+      </c>
+      <c r="AS2" t="str">
+        <f>AR2</f>
+        <v>HD 511</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU2" t="str">
+        <f>AT2</f>
+        <v>HD 511</v>
+      </c>
+      <c r="AV2" t="str">
+        <f>AU2</f>
+        <v>HD 511</v>
+      </c>
+      <c r="AW2" t="str">
+        <f>AV2</f>
+        <v>HD 511</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY2" t="str">
+        <f>AX2</f>
+        <v>HD 511</v>
+      </c>
+      <c r="AZ2" t="str">
+        <f>AY2</f>
+        <v>HD 511</v>
+      </c>
+      <c r="BA2" t="str">
+        <f>AZ2</f>
+        <v>HD 511</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -733,16 +913,79 @@
         <v>730</v>
       </c>
       <c r="AD3">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="AE3">
         <v>365</v>
       </c>
       <c r="AF3">
+        <v>548</v>
+      </c>
+      <c r="AG3">
+        <v>730</v>
+      </c>
+      <c r="AH3">
         <v>180</v>
       </c>
+      <c r="AI3">
+        <v>365</v>
+      </c>
+      <c r="AJ3">
+        <v>548</v>
+      </c>
+      <c r="AK3">
+        <v>730</v>
+      </c>
+      <c r="AL3">
+        <v>180</v>
+      </c>
+      <c r="AM3">
+        <v>365</v>
+      </c>
+      <c r="AN3">
+        <v>548</v>
+      </c>
+      <c r="AO3">
+        <v>730</v>
+      </c>
+      <c r="AP3">
+        <v>180</v>
+      </c>
+      <c r="AQ3">
+        <v>365</v>
+      </c>
+      <c r="AR3">
+        <v>548</v>
+      </c>
+      <c r="AS3">
+        <v>730</v>
+      </c>
+      <c r="AT3">
+        <v>180</v>
+      </c>
+      <c r="AU3">
+        <v>365</v>
+      </c>
+      <c r="AV3">
+        <v>548</v>
+      </c>
+      <c r="AW3">
+        <v>730</v>
+      </c>
+      <c r="AX3">
+        <v>180</v>
+      </c>
+      <c r="AY3">
+        <v>365</v>
+      </c>
+      <c r="AZ3">
+        <v>548</v>
+      </c>
+      <c r="BA3">
+        <v>730</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -834,13 +1077,76 @@
         <v>2</v>
       </c>
       <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>3</v>
+      </c>
+      <c r="AI4">
+        <v>3</v>
+      </c>
+      <c r="AJ4">
+        <v>3</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
+      <c r="AL4">
         <v>4</v>
       </c>
-      <c r="AF4">
+      <c r="AM4">
         <v>4</v>
       </c>
+      <c r="AN4">
+        <v>4</v>
+      </c>
+      <c r="AO4">
+        <v>4</v>
+      </c>
+      <c r="AP4">
+        <v>5</v>
+      </c>
+      <c r="AQ4">
+        <v>5</v>
+      </c>
+      <c r="AR4">
+        <v>5</v>
+      </c>
+      <c r="AS4">
+        <v>5</v>
+      </c>
+      <c r="AT4">
+        <v>6</v>
+      </c>
+      <c r="AU4">
+        <v>6</v>
+      </c>
+      <c r="AV4">
+        <v>6</v>
+      </c>
+      <c r="AW4">
+        <v>6</v>
+      </c>
+      <c r="AX4">
+        <v>8</v>
+      </c>
+      <c r="AY4">
+        <v>8</v>
+      </c>
+      <c r="AZ4">
+        <v>8</v>
+      </c>
+      <c r="BA4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -937,20 +1243,71 @@
       <c r="AF5" s="1">
         <v>0.5</v>
       </c>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
+      <c r="AG5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1047,8 +1404,71 @@
       <c r="AF6" s="2">
         <v>1</v>
       </c>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1137,16 +1557,79 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="AD7" s="2">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="AE7" s="2">
         <v>0.96199999999999997</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="AM7" s="2">
         <v>0.97130000000000005</v>
       </c>
-      <c r="AF7" s="2">
-        <v>0.97660000000000002</v>
+      <c r="AN7" s="2">
+        <v>0.9667</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>0.9667</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>0.9667</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>0.9667</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>0.96260000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1235,16 +1718,79 @@
         <v>0.89300000000000002</v>
       </c>
       <c r="AD8" s="2">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="AE8" s="2">
         <v>0.9365</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AF8" s="2">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>0.9365</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="AM8" s="2">
         <v>0.95299999999999996</v>
       </c>
-      <c r="AF8" s="2">
-        <v>0.96340000000000003</v>
+      <c r="AN8" s="2">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>0.93530000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1333,16 +1879,79 @@
         <v>0.872</v>
       </c>
       <c r="AD9" s="2">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="AE9" s="2">
         <v>0.91359999999999997</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AF9" s="2">
+        <v>0.8891</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>0.8891</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="AM9" s="2">
         <v>0.93679999999999997</v>
       </c>
-      <c r="AF9" s="2">
-        <v>0.95220000000000005</v>
+      <c r="AN9" s="2">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0.9103</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>0.9103</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>0.9103</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>0.9103</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1431,16 +2040,79 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="AD10" s="2">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="AE10" s="2">
         <v>0.89219999999999999</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AF10" s="2">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="AM10" s="2">
         <v>0.92179999999999995</v>
       </c>
-      <c r="AF10" s="2">
-        <v>0.94189999999999996</v>
+      <c r="AN10" s="2">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>0.88660000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1529,16 +2201,79 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="AD11" s="2">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="AE11" s="2">
         <v>0.87180000000000002</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AF11" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="AM11" s="2">
         <v>0.90749999999999997</v>
       </c>
-      <c r="AF11" s="2">
-        <v>0.93230000000000002</v>
+      <c r="AN11" s="2">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0.8639</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>0.8639</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>0.8639</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>0.8639</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1627,16 +2362,79 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="AD12" s="2">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="AE12" s="2">
         <v>0.85219999999999996</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AF12" s="2">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AM12" s="2">
         <v>0.89370000000000005</v>
       </c>
-      <c r="AF12" s="2">
-        <v>0.92320000000000002</v>
+      <c r="AN12" s="2">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>0.84189999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1725,16 +2523,79 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="AD13" s="2">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="AE13" s="2">
         <v>0.83309999999999995</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AF13" s="2">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="AM13" s="2">
         <v>0.88049999999999995</v>
       </c>
-      <c r="AF13" s="2">
-        <v>0.91449999999999998</v>
+      <c r="AN13" s="2">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>0.82040000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1823,16 +2684,79 @@
         <v>0.75700000000000001</v>
       </c>
       <c r="AD14" s="2">
+        <v>0.8931</v>
+      </c>
+      <c r="AE14" s="2">
         <v>0.8145</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AF14" s="2">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0.8931</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>0.8145</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="AM14" s="2">
         <v>0.86750000000000005</v>
       </c>
-      <c r="AF14" s="2">
-        <v>0.90610000000000002</v>
+      <c r="AN14" s="2">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0.7994</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>0.7994</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="AW14" s="2">
+        <v>0.7994</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>0.7994</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1921,16 +2845,79 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="AD15" s="2">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="AE15" s="2">
         <v>0.79630000000000001</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AF15" s="2">
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>0.8901</v>
+      </c>
+      <c r="AM15" s="2">
         <v>0.85489999999999999</v>
       </c>
-      <c r="AF15" s="2">
-        <v>0.89790000000000003</v>
+      <c r="AN15" s="2">
+        <v>0.8155</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0.8901</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>0.8155</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>0.8901</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>0.8155</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>0.8901</v>
+      </c>
+      <c r="AY15" s="2">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>0.8155</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>0.77880000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -2019,16 +3006,79 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="AD16" s="2">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="AE16" s="2">
         <v>0.77839999999999998</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AF16" s="2">
+        <v>0.70620000000000005</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0.62990000000000002</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>0.70620000000000005</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>0.62990000000000002</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="AM16" s="2">
         <v>0.84260000000000002</v>
       </c>
-      <c r="AF16" s="2">
-        <v>0.88990000000000002</v>
+      <c r="AN16" s="2">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>0.75849999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -2117,16 +3167,79 @@
         <v>0.65800000000000003</v>
       </c>
       <c r="AD17" s="2">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="AE17" s="2">
         <v>0.76090000000000002</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AF17" s="2">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="AG17" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="AK17" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="AM17" s="2">
         <v>0.83050000000000002</v>
       </c>
-      <c r="AF17" s="2">
-        <v>0.88219999999999998</v>
+      <c r="AN17" s="2">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>0.73850000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -2215,16 +3328,79 @@
         <v>0.624</v>
       </c>
       <c r="AD18" s="2">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="AE18" s="2">
         <v>0.74360000000000004</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AF18" s="2">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="AG18" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="AK18" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="AM18" s="2">
         <v>0.81850000000000001</v>
       </c>
-      <c r="AF18" s="2">
-        <v>0.87460000000000004</v>
+      <c r="AN18" s="2">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>0.71879999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -2313,16 +3489,79 @@
         <v>0.6</v>
       </c>
       <c r="AD19" s="2">
+        <v>0.8478</v>
+      </c>
+      <c r="AE19" s="2">
         <v>0.72650000000000003</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AF19" s="2">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AG19" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0.8478</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>0.72650000000000003</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AK19" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="AM19" s="2">
         <v>0.80679999999999996</v>
       </c>
-      <c r="AF19" s="2">
-        <v>0.86709999999999998</v>
+      <c r="AN19" s="2">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>0.69930000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2415,16 +3654,79 @@
         <v>#N/A</v>
       </c>
       <c r="AD20" s="2">
+        <v>0.83919999999999995</v>
+      </c>
+      <c r="AE20" s="2">
         <v>0.7097</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AF20" s="2">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="AG20" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0.83919999999999995</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>0.7097</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="AK20" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>0.8458</v>
+      </c>
+      <c r="AM20" s="2">
         <v>0.79520000000000002</v>
       </c>
-      <c r="AF20" s="2">
-        <v>0.85980000000000001</v>
+      <c r="AN20" s="2">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>0.8458</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>0.8458</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>0.8458</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>0.68</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -2519,16 +3821,79 @@
         <v>#N/A</v>
       </c>
       <c r="AD21" s="2">
+        <v>0.83079999999999998</v>
+      </c>
+      <c r="AE21" s="2">
         <v>0.69299999999999995</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AF21" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG21" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>0.83079999999999998</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="AJ21" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK21" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="AM21" s="2">
         <v>0.78380000000000005</v>
       </c>
-      <c r="AF21" s="2">
-        <v>0.85250000000000004</v>
+      <c r="AN21" s="2">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>0.78380000000000005</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>0.78380000000000005</v>
+      </c>
+      <c r="AV21" s="2">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="AW21" s="2">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="AY21" s="2">
+        <v>0.78380000000000005</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -2623,16 +3988,79 @@
         <v>#N/A</v>
       </c>
       <c r="AD22" s="2">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="AE22" s="2">
         <v>0.67659999999999998</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AF22" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG22" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="AJ22" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK22" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AM22" s="2">
         <v>0.77249999999999996</v>
       </c>
-      <c r="AF22" s="2">
-        <v>0.84540000000000004</v>
+      <c r="AN22" s="2">
+        <v>0.70509999999999995</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0.6421</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>0.70509999999999995</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>0.6421</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="AV22" s="2">
+        <v>0.70509999999999995</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>0.6421</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>0.70509999999999995</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>0.6421</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -2727,16 +4155,79 @@
         <v>#N/A</v>
       </c>
       <c r="AD23" s="2">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="AE23" s="2">
         <v>0.6603</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AF23" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG23" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>0.6603</v>
+      </c>
+      <c r="AJ23" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK23" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="AM23" s="2">
         <v>0.76129999999999998</v>
       </c>
-      <c r="AF23" s="2">
-        <v>0.83840000000000003</v>
+      <c r="AN23" s="2">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="AV23" s="2">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="AW23" s="2">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="BA23" s="2">
+        <v>0.62329999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -2835,16 +4326,79 @@
         <v>#N/A</v>
       </c>
       <c r="AD24" s="2">
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="AE24" s="2">
         <v>0.64419999999999999</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AF24" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG24" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AJ24" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK24" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="AM24" s="2">
         <v>0.75019999999999998</v>
       </c>
-      <c r="AF24" s="2">
-        <v>0.83150000000000002</v>
+      <c r="AN24" s="2">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0.6048</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>0.6048</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="AV24" s="2">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="AW24" s="2">
+        <v>0.6048</v>
+      </c>
+      <c r="AX24" s="2">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="AY24" s="2">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>0.6048</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -2943,16 +4497,79 @@
         <v>#N/A</v>
       </c>
       <c r="AD25" s="2">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="AE25" s="2">
         <v>0.62819999999999998</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AF25" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG25" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="AJ25" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK25" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AM25" s="2">
         <v>0.73929999999999996</v>
       </c>
-      <c r="AF25" s="2">
-        <v>0.8246</v>
+      <c r="AN25" s="2">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="AO25" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="AR25" s="2">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="AS25" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AU25" s="2">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="AV25" s="2">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="AW25" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX25" s="2">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AY25" s="2">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="AZ25" s="2">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="BA25" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -3051,16 +4668,79 @@
         <v>#N/A</v>
       </c>
       <c r="AD26" s="2">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="AE26" s="2">
         <v>0.61229999999999996</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AF26" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG26" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="AJ26" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK26" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="AM26" s="2">
         <v>0.72840000000000005</v>
       </c>
-      <c r="AF26" s="2">
-        <v>0.81789999999999996</v>
+      <c r="AN26" s="2">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="AO26" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="AR26" s="2">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="AS26" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="AV26" s="2">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="AW26" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX26" s="2">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="AY26" s="2">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="AZ26" s="2">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="BA26" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -3174,18 +4854,82 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AD27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE27" s="2">
+      <c r="AD27" s="2">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="AE27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>0.78239999999999998</v>
+      </c>
+      <c r="AI27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="AM27" s="2">
         <v>0.71760000000000002</v>
       </c>
-      <c r="AF27" s="2">
-        <v>0.81120000000000003</v>
+      <c r="AN27" s="2">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="AO27" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="AQ27" s="2">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="AR27" s="2">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="AS27" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="AV27" s="2">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="AW27" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX27" s="2">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="AY27" s="2">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="AZ27" s="2">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="BA27" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -3299,18 +5043,82 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AD28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE28" s="2">
+      <c r="AD28" s="2">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="AE28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="AI28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>0.78080000000000005</v>
+      </c>
+      <c r="AM28" s="2">
         <v>0.70689999999999997</v>
       </c>
-      <c r="AF28" s="2">
-        <v>0.80449999999999999</v>
+      <c r="AN28" s="2">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="AO28" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>0.78080000000000005</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="AS28" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>0.78080000000000005</v>
+      </c>
+      <c r="AU28" s="2">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="AV28" s="2">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="AW28" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX28" s="2">
+        <v>0.78080000000000005</v>
+      </c>
+      <c r="AY28" s="2">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="AZ28" s="2">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="BA28" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -3426,18 +5234,82 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AD29" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE29" s="2">
+      <c r="AD29" s="2">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="AE29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="AI29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="AM29" s="2">
         <v>0.69630000000000003</v>
       </c>
-      <c r="AF29" s="2">
-        <v>0.79800000000000004</v>
+      <c r="AN29" s="2">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="AO29" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="AS29" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="AU29" s="2">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="AV29" s="2">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="AW29" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX29" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="AZ29" s="2">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="BA29" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -3553,18 +5425,82 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AD30" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE30" s="2">
+      <c r="AD30" s="2">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="AE30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="AI30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="AM30" s="2">
         <v>0.68579999999999997</v>
       </c>
-      <c r="AF30" s="2">
-        <v>0.79149999999999998</v>
+      <c r="AN30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AR30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AS30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AV30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AZ30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BA30" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -3680,18 +5616,82 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AD31" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE31" s="2">
+      <c r="AD31" s="2">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="AE31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="AI31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="AM31" s="2">
         <v>0.6754</v>
       </c>
-      <c r="AF31" s="2">
-        <v>0.78500000000000003</v>
+      <c r="AN31" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO31" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>0.6754</v>
+      </c>
+      <c r="AR31" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AS31" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>0.6754</v>
+      </c>
+      <c r="AV31" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW31" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX31" s="2">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="AY31" s="2">
+        <v>0.6754</v>
+      </c>
+      <c r="AZ31" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="BA31" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3792,107 +5792,107 @@
         <v>45195</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" ref="D33:AC33" si="15">C33</f>
+        <f t="shared" ref="D33:AC33" si="21">C33</f>
         <v>45195</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="R33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="S33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="T33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="U33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="V33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="W33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="X33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="Y33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="Z33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="AA33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="AB33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>45195</v>
       </c>
     </row>

--- a/src/Degradation Curves.xlsx
+++ b/src/Degradation Curves.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prevalonenergy-my.sharepoint.com/personal/himanshu_prevalonenergy_com/Documents/I drive/Sizing Tool/DeployWithRender/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{650EDC7B-DF84-4E43-A6A7-4711B3DDD67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3DCC40C-7410-4CDC-AD42-52B69B115F77}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{650EDC7B-DF84-4E43-A6A7-4711B3DDD67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7114054B-3538-4EAF-BDFB-96BF541A0C2B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,19 +128,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -419,7 +407,7 @@
   <dimension ref="A1:BA33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="BA5" sqref="BA5"/>
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,73 +1548,73 @@
         <v>0.97409999999999997</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.96199999999999997</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="AF7" s="2">
         <v>0.95289999999999997</v>
       </c>
       <c r="AG7" s="2">
-        <v>0.94340000000000002</v>
+        <v>0.92149999999999999</v>
       </c>
       <c r="AH7" s="2">
         <v>0.97409999999999997</v>
       </c>
       <c r="AI7" s="2">
-        <v>0.96199999999999997</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="AJ7" s="2">
         <v>0.95289999999999997</v>
       </c>
       <c r="AK7" s="2">
-        <v>0.94340000000000002</v>
+        <v>0.92149999999999999</v>
       </c>
       <c r="AL7" s="2">
-        <v>0.97740000000000005</v>
+        <v>0.97660000000000002</v>
       </c>
       <c r="AM7" s="2">
-        <v>0.97130000000000005</v>
+        <v>0.95330000000000004</v>
       </c>
       <c r="AN7" s="2">
         <v>0.9667</v>
       </c>
       <c r="AO7" s="2">
-        <v>0.96260000000000001</v>
+        <v>0.93789999999999996</v>
       </c>
       <c r="AP7" s="2">
         <v>0.97740000000000005</v>
       </c>
       <c r="AQ7" s="2">
-        <v>0.97130000000000005</v>
+        <v>0.95330000000000004</v>
       </c>
       <c r="AR7" s="2">
         <v>0.9667</v>
       </c>
       <c r="AS7" s="2">
-        <v>0.96260000000000001</v>
+        <v>0.93789999999999996</v>
       </c>
       <c r="AT7" s="2">
         <v>0.97740000000000005</v>
       </c>
       <c r="AU7" s="2">
-        <v>0.97130000000000005</v>
+        <v>0.95330000000000004</v>
       </c>
       <c r="AV7" s="2">
         <v>0.9667</v>
       </c>
       <c r="AW7" s="2">
-        <v>0.96260000000000001</v>
+        <v>0.93789999999999996</v>
       </c>
       <c r="AX7" s="2">
         <v>0.97740000000000005</v>
       </c>
       <c r="AY7" s="2">
-        <v>0.97130000000000005</v>
+        <v>0.96240000000000003</v>
       </c>
       <c r="AZ7" s="2">
         <v>0.9667</v>
       </c>
       <c r="BA7" s="2">
-        <v>0.96260000000000001</v>
+        <v>0.93789999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
@@ -1721,73 +1709,73 @@
         <v>0.95920000000000005</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.9365</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="AF8" s="2">
         <v>0.91949999999999998</v>
       </c>
       <c r="AG8" s="2">
-        <v>0.90159999999999996</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="AH8" s="2">
         <v>0.95920000000000005</v>
       </c>
       <c r="AI8" s="2">
-        <v>0.9365</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="AJ8" s="2">
         <v>0.91949999999999998</v>
       </c>
       <c r="AK8" s="2">
-        <v>0.90159999999999996</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="AL8" s="2">
-        <v>0.96350000000000002</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="AM8" s="2">
-        <v>0.95299999999999996</v>
+        <v>0.92669999999999997</v>
       </c>
       <c r="AN8" s="2">
         <v>0.94369999999999998</v>
       </c>
       <c r="AO8" s="2">
-        <v>0.93530000000000002</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="AP8" s="2">
         <v>0.96350000000000002</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0.95299999999999996</v>
+        <v>0.92669999999999997</v>
       </c>
       <c r="AR8" s="2">
         <v>0.94369999999999998</v>
       </c>
       <c r="AS8" s="2">
-        <v>0.93530000000000002</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="AT8" s="2">
         <v>0.96350000000000002</v>
       </c>
       <c r="AU8" s="2">
-        <v>0.95299999999999996</v>
+        <v>0.92669999999999997</v>
       </c>
       <c r="AV8" s="2">
         <v>0.94369999999999998</v>
       </c>
       <c r="AW8" s="2">
-        <v>0.93530000000000002</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="AX8" s="2">
         <v>0.96350000000000002</v>
       </c>
       <c r="AY8" s="2">
-        <v>0.95299999999999996</v>
+        <v>0.94110000000000005</v>
       </c>
       <c r="AZ8" s="2">
         <v>0.94369999999999998</v>
       </c>
       <c r="BA8" s="2">
-        <v>0.93530000000000002</v>
+        <v>0.90259999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
@@ -1882,73 +1870,73 @@
         <v>0.94630000000000003</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.91359999999999997</v>
+        <v>0.8861</v>
       </c>
       <c r="AF9" s="2">
         <v>0.8891</v>
       </c>
       <c r="AG9" s="2">
-        <v>0.86329999999999996</v>
+        <v>0.83979999999999999</v>
       </c>
       <c r="AH9" s="2">
         <v>0.94630000000000003</v>
       </c>
       <c r="AI9" s="2">
-        <v>0.91359999999999997</v>
+        <v>0.8861</v>
       </c>
       <c r="AJ9" s="2">
         <v>0.8891</v>
       </c>
       <c r="AK9" s="2">
-        <v>0.86329999999999996</v>
+        <v>0.83979999999999999</v>
       </c>
       <c r="AL9" s="2">
-        <v>0.95130000000000003</v>
+        <v>0.95220000000000005</v>
       </c>
       <c r="AM9" s="2">
-        <v>0.93679999999999997</v>
+        <v>0.90469999999999995</v>
       </c>
       <c r="AN9" s="2">
         <v>0.92290000000000005</v>
       </c>
       <c r="AO9" s="2">
-        <v>0.9103</v>
+        <v>0.87329999999999997</v>
       </c>
       <c r="AP9" s="2">
         <v>0.95130000000000003</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.93679999999999997</v>
+        <v>0.90469999999999995</v>
       </c>
       <c r="AR9" s="2">
         <v>0.92290000000000005</v>
       </c>
       <c r="AS9" s="2">
-        <v>0.9103</v>
+        <v>0.87329999999999997</v>
       </c>
       <c r="AT9" s="2">
         <v>0.95130000000000003</v>
       </c>
       <c r="AU9" s="2">
-        <v>0.93679999999999997</v>
+        <v>0.90469999999999995</v>
       </c>
       <c r="AV9" s="2">
         <v>0.92290000000000005</v>
       </c>
       <c r="AW9" s="2">
-        <v>0.9103</v>
+        <v>0.87329999999999997</v>
       </c>
       <c r="AX9" s="2">
         <v>0.95130000000000003</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.93679999999999997</v>
+        <v>0.92330000000000001</v>
       </c>
       <c r="AZ9" s="2">
         <v>0.92290000000000005</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.9103</v>
+        <v>0.87329999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
@@ -2043,73 +2031,73 @@
         <v>0.93459999999999999</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.89219999999999999</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="AF10" s="2">
         <v>0.86050000000000004</v>
       </c>
       <c r="AG10" s="2">
-        <v>0.82699999999999996</v>
+        <v>0.80689999999999995</v>
       </c>
       <c r="AH10" s="2">
         <v>0.93459999999999999</v>
       </c>
       <c r="AI10" s="2">
-        <v>0.89219999999999999</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="AJ10" s="2">
         <v>0.86050000000000004</v>
       </c>
       <c r="AK10" s="2">
-        <v>0.82699999999999996</v>
+        <v>0.80689999999999995</v>
       </c>
       <c r="AL10" s="2">
-        <v>0.93989999999999996</v>
+        <v>0.94189999999999996</v>
       </c>
       <c r="AM10" s="2">
-        <v>0.92179999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="AN10" s="2">
         <v>0.90339999999999998</v>
       </c>
       <c r="AO10" s="2">
-        <v>0.88660000000000005</v>
+        <v>0.84730000000000005</v>
       </c>
       <c r="AP10" s="2">
         <v>0.93989999999999996</v>
       </c>
       <c r="AQ10" s="2">
-        <v>0.92179999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="AR10" s="2">
         <v>0.90339999999999998</v>
       </c>
       <c r="AS10" s="2">
-        <v>0.88660000000000005</v>
+        <v>0.84730000000000005</v>
       </c>
       <c r="AT10" s="2">
         <v>0.93989999999999996</v>
       </c>
       <c r="AU10" s="2">
-        <v>0.92179999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="AV10" s="2">
         <v>0.90339999999999998</v>
       </c>
       <c r="AW10" s="2">
-        <v>0.88660000000000005</v>
+        <v>0.84730000000000005</v>
       </c>
       <c r="AX10" s="2">
         <v>0.93989999999999996</v>
       </c>
       <c r="AY10" s="2">
-        <v>0.92179999999999995</v>
+        <v>0.90759999999999996</v>
       </c>
       <c r="AZ10" s="2">
         <v>0.90339999999999998</v>
       </c>
       <c r="BA10" s="2">
-        <v>0.88660000000000005</v>
+        <v>0.84730000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
@@ -2204,73 +2192,73 @@
         <v>0.92349999999999999</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.87180000000000002</v>
+        <v>0.84130000000000005</v>
       </c>
       <c r="AF11" s="2">
         <v>0.83299999999999996</v>
       </c>
       <c r="AG11" s="2">
-        <v>0.79210000000000003</v>
+        <v>0.77680000000000005</v>
       </c>
       <c r="AH11" s="2">
         <v>0.92349999999999999</v>
       </c>
       <c r="AI11" s="2">
-        <v>0.87180000000000002</v>
+        <v>0.84130000000000005</v>
       </c>
       <c r="AJ11" s="2">
         <v>0.83299999999999996</v>
       </c>
       <c r="AK11" s="2">
-        <v>0.79210000000000003</v>
+        <v>0.77680000000000005</v>
       </c>
       <c r="AL11" s="2">
-        <v>0.92920000000000003</v>
+        <v>0.93230000000000002</v>
       </c>
       <c r="AM11" s="2">
-        <v>0.90749999999999997</v>
+        <v>0.86719999999999997</v>
       </c>
       <c r="AN11" s="2">
         <v>0.88480000000000003</v>
       </c>
       <c r="AO11" s="2">
-        <v>0.8639</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="AP11" s="2">
         <v>0.92920000000000003</v>
       </c>
       <c r="AQ11" s="2">
-        <v>0.90749999999999997</v>
+        <v>0.86719999999999997</v>
       </c>
       <c r="AR11" s="2">
         <v>0.88480000000000003</v>
       </c>
       <c r="AS11" s="2">
-        <v>0.8639</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="AT11" s="2">
         <v>0.92920000000000003</v>
       </c>
       <c r="AU11" s="2">
-        <v>0.90749999999999997</v>
+        <v>0.86719999999999997</v>
       </c>
       <c r="AV11" s="2">
         <v>0.88480000000000003</v>
       </c>
       <c r="AW11" s="2">
-        <v>0.8639</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="AX11" s="2">
         <v>0.92920000000000003</v>
       </c>
       <c r="AY11" s="2">
-        <v>0.90749999999999997</v>
+        <v>0.89319999999999999</v>
       </c>
       <c r="AZ11" s="2">
         <v>0.88480000000000003</v>
       </c>
       <c r="BA11" s="2">
-        <v>0.8639</v>
+        <v>0.82350000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
@@ -2365,73 +2353,73 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="AE12" s="2">
-        <v>0.85219999999999996</v>
+        <v>0.82140000000000002</v>
       </c>
       <c r="AF12" s="2">
         <v>0.80649999999999999</v>
       </c>
       <c r="AG12" s="2">
-        <v>0.75819999999999999</v>
+        <v>0.74870000000000003</v>
       </c>
       <c r="AH12" s="2">
         <v>0.91300000000000003</v>
       </c>
       <c r="AI12" s="2">
-        <v>0.85219999999999996</v>
+        <v>0.82140000000000002</v>
       </c>
       <c r="AJ12" s="2">
         <v>0.80649999999999999</v>
       </c>
       <c r="AK12" s="2">
-        <v>0.75819999999999999</v>
+        <v>0.74870000000000003</v>
       </c>
       <c r="AL12" s="2">
-        <v>0.91900000000000004</v>
+        <v>0.92320000000000002</v>
       </c>
       <c r="AM12" s="2">
-        <v>0.89370000000000005</v>
+        <v>0.85050000000000003</v>
       </c>
       <c r="AN12" s="2">
         <v>0.86680000000000001</v>
       </c>
       <c r="AO12" s="2">
-        <v>0.84189999999999998</v>
+        <v>0.80130000000000001</v>
       </c>
       <c r="AP12" s="2">
         <v>0.91900000000000004</v>
       </c>
       <c r="AQ12" s="2">
-        <v>0.89370000000000005</v>
+        <v>0.85050000000000003</v>
       </c>
       <c r="AR12" s="2">
         <v>0.86680000000000001</v>
       </c>
       <c r="AS12" s="2">
-        <v>0.84189999999999998</v>
+        <v>0.80130000000000001</v>
       </c>
       <c r="AT12" s="2">
         <v>0.91900000000000004</v>
       </c>
       <c r="AU12" s="2">
-        <v>0.89370000000000005</v>
+        <v>0.85050000000000003</v>
       </c>
       <c r="AV12" s="2">
         <v>0.86680000000000001</v>
       </c>
       <c r="AW12" s="2">
-        <v>0.84189999999999998</v>
+        <v>0.80130000000000001</v>
       </c>
       <c r="AX12" s="2">
         <v>0.91900000000000004</v>
       </c>
       <c r="AY12" s="2">
-        <v>0.89370000000000005</v>
+        <v>0.87970000000000004</v>
       </c>
       <c r="AZ12" s="2">
         <v>0.86680000000000001</v>
       </c>
       <c r="BA12" s="2">
-        <v>0.84189999999999998</v>
+        <v>0.80130000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
@@ -2526,73 +2514,73 @@
         <v>0.90290000000000004</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.83309999999999995</v>
+        <v>0.80259999999999998</v>
       </c>
       <c r="AF13" s="2">
         <v>0.78059999999999996</v>
       </c>
       <c r="AG13" s="2">
-        <v>0.72519999999999996</v>
+        <v>0.72219999999999995</v>
       </c>
       <c r="AH13" s="2">
         <v>0.90290000000000004</v>
       </c>
       <c r="AI13" s="2">
-        <v>0.83309999999999995</v>
+        <v>0.80259999999999998</v>
       </c>
       <c r="AJ13" s="2">
         <v>0.78059999999999996</v>
       </c>
       <c r="AK13" s="2">
-        <v>0.72519999999999996</v>
+        <v>0.72219999999999995</v>
       </c>
       <c r="AL13" s="2">
-        <v>0.90910000000000002</v>
+        <v>0.91449999999999998</v>
       </c>
       <c r="AM13" s="2">
-        <v>0.88049999999999995</v>
+        <v>0.83479999999999999</v>
       </c>
       <c r="AN13" s="2">
         <v>0.84930000000000005</v>
       </c>
       <c r="AO13" s="2">
-        <v>0.82040000000000002</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="AP13" s="2">
         <v>0.90910000000000002</v>
       </c>
       <c r="AQ13" s="2">
-        <v>0.88049999999999995</v>
+        <v>0.83479999999999999</v>
       </c>
       <c r="AR13" s="2">
         <v>0.84930000000000005</v>
       </c>
       <c r="AS13" s="2">
-        <v>0.82040000000000002</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="AT13" s="2">
         <v>0.90910000000000002</v>
       </c>
       <c r="AU13" s="2">
-        <v>0.88049999999999995</v>
+        <v>0.83479999999999999</v>
       </c>
       <c r="AV13" s="2">
         <v>0.84930000000000005</v>
       </c>
       <c r="AW13" s="2">
-        <v>0.82040000000000002</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="AX13" s="2">
         <v>0.90910000000000002</v>
       </c>
       <c r="AY13" s="2">
-        <v>0.88049999999999995</v>
+        <v>0.86709999999999998</v>
       </c>
       <c r="AZ13" s="2">
         <v>0.84930000000000005</v>
       </c>
       <c r="BA13" s="2">
-        <v>0.82040000000000002</v>
+        <v>0.78029999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
@@ -2687,73 +2675,73 @@
         <v>0.8931</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.8145</v>
+        <v>0.78469999999999995</v>
       </c>
       <c r="AF14" s="2">
         <v>0.75529999999999997</v>
       </c>
       <c r="AG14" s="2">
-        <v>0.69289999999999996</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="AH14" s="2">
         <v>0.8931</v>
       </c>
       <c r="AI14" s="2">
-        <v>0.8145</v>
+        <v>0.78469999999999995</v>
       </c>
       <c r="AJ14" s="2">
         <v>0.75529999999999997</v>
       </c>
       <c r="AK14" s="2">
-        <v>0.69289999999999996</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="AL14" s="2">
-        <v>0.89949999999999997</v>
+        <v>0.90610000000000002</v>
       </c>
       <c r="AM14" s="2">
-        <v>0.86750000000000005</v>
+        <v>0.81979999999999997</v>
       </c>
       <c r="AN14" s="2">
         <v>0.83220000000000005</v>
       </c>
       <c r="AO14" s="2">
-        <v>0.7994</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="AP14" s="2">
         <v>0.89949999999999997</v>
       </c>
       <c r="AQ14" s="2">
-        <v>0.86750000000000005</v>
+        <v>0.81979999999999997</v>
       </c>
       <c r="AR14" s="2">
         <v>0.83220000000000005</v>
       </c>
       <c r="AS14" s="2">
-        <v>0.7994</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="AT14" s="2">
         <v>0.89949999999999997</v>
       </c>
       <c r="AU14" s="2">
-        <v>0.86750000000000005</v>
+        <v>0.81979999999999997</v>
       </c>
       <c r="AV14" s="2">
         <v>0.83220000000000005</v>
       </c>
       <c r="AW14" s="2">
-        <v>0.7994</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="AX14" s="2">
         <v>0.89949999999999997</v>
       </c>
       <c r="AY14" s="2">
-        <v>0.86750000000000005</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="AZ14" s="2">
         <v>0.83220000000000005</v>
       </c>
       <c r="BA14" s="2">
-        <v>0.7994</v>
+        <v>0.76039999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
@@ -2848,73 +2836,73 @@
         <v>0.88370000000000004</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.79630000000000001</v>
+        <v>0.76759999999999995</v>
       </c>
       <c r="AF15" s="2">
         <v>0.73050000000000004</v>
       </c>
       <c r="AG15" s="2">
-        <v>0.66110000000000002</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="AH15" s="2">
         <v>0.88370000000000004</v>
       </c>
       <c r="AI15" s="2">
-        <v>0.79630000000000001</v>
+        <v>0.76759999999999995</v>
       </c>
       <c r="AJ15" s="2">
         <v>0.73050000000000004</v>
       </c>
       <c r="AK15" s="2">
-        <v>0.66110000000000002</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="AL15" s="2">
-        <v>0.8901</v>
+        <v>0.89790000000000003</v>
       </c>
       <c r="AM15" s="2">
-        <v>0.85489999999999999</v>
+        <v>0.80549999999999999</v>
       </c>
       <c r="AN15" s="2">
         <v>0.8155</v>
       </c>
       <c r="AO15" s="2">
-        <v>0.77880000000000005</v>
+        <v>0.74139999999999995</v>
       </c>
       <c r="AP15" s="2">
         <v>0.8901</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0.85489999999999999</v>
+        <v>0.80549999999999999</v>
       </c>
       <c r="AR15" s="2">
         <v>0.8155</v>
       </c>
       <c r="AS15" s="2">
-        <v>0.77880000000000005</v>
+        <v>0.74139999999999995</v>
       </c>
       <c r="AT15" s="2">
         <v>0.8901</v>
       </c>
       <c r="AU15" s="2">
-        <v>0.85489999999999999</v>
+        <v>0.80549999999999999</v>
       </c>
       <c r="AV15" s="2">
         <v>0.8155</v>
       </c>
       <c r="AW15" s="2">
-        <v>0.77880000000000005</v>
+        <v>0.74139999999999995</v>
       </c>
       <c r="AX15" s="2">
         <v>0.8901</v>
       </c>
       <c r="AY15" s="2">
-        <v>0.85489999999999999</v>
+        <v>0.84350000000000003</v>
       </c>
       <c r="AZ15" s="2">
         <v>0.8155</v>
       </c>
       <c r="BA15" s="2">
-        <v>0.77880000000000005</v>
+        <v>0.74139999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
@@ -3009,73 +2997,73 @@
         <v>0.87439999999999996</v>
       </c>
       <c r="AE16" s="2">
-        <v>0.77839999999999998</v>
+        <v>0.75119999999999998</v>
       </c>
       <c r="AF16" s="2">
         <v>0.70620000000000005</v>
       </c>
       <c r="AG16" s="2">
-        <v>0.62990000000000002</v>
+        <v>0.64990000000000003</v>
       </c>
       <c r="AH16" s="2">
         <v>0.87439999999999996</v>
       </c>
       <c r="AI16" s="2">
-        <v>0.77839999999999998</v>
+        <v>0.75119999999999998</v>
       </c>
       <c r="AJ16" s="2">
         <v>0.70620000000000005</v>
       </c>
       <c r="AK16" s="2">
-        <v>0.62990000000000002</v>
+        <v>0.64990000000000003</v>
       </c>
       <c r="AL16" s="2">
-        <v>0.88090000000000002</v>
+        <v>0.88990000000000002</v>
       </c>
       <c r="AM16" s="2">
-        <v>0.84260000000000002</v>
+        <v>0.79179999999999995</v>
       </c>
       <c r="AN16" s="2">
         <v>0.79900000000000004</v>
       </c>
       <c r="AO16" s="2">
-        <v>0.75849999999999995</v>
+        <v>0.72309999999999997</v>
       </c>
       <c r="AP16" s="2">
         <v>0.88090000000000002</v>
       </c>
       <c r="AQ16" s="2">
-        <v>0.84260000000000002</v>
+        <v>0.79179999999999995</v>
       </c>
       <c r="AR16" s="2">
         <v>0.79900000000000004</v>
       </c>
       <c r="AS16" s="2">
-        <v>0.75849999999999995</v>
+        <v>0.72309999999999997</v>
       </c>
       <c r="AT16" s="2">
         <v>0.88090000000000002</v>
       </c>
       <c r="AU16" s="2">
-        <v>0.84260000000000002</v>
+        <v>0.79179999999999995</v>
       </c>
       <c r="AV16" s="2">
         <v>0.79900000000000004</v>
       </c>
       <c r="AW16" s="2">
-        <v>0.75849999999999995</v>
+        <v>0.72309999999999997</v>
       </c>
       <c r="AX16" s="2">
         <v>0.88090000000000002</v>
       </c>
       <c r="AY16" s="2">
-        <v>0.84260000000000002</v>
+        <v>0.83240000000000003</v>
       </c>
       <c r="AZ16" s="2">
         <v>0.79900000000000004</v>
       </c>
       <c r="BA16" s="2">
-        <v>0.75849999999999995</v>
+        <v>0.72309999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
@@ -3170,73 +3158,73 @@
         <v>0.86539999999999995</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.76090000000000002</v>
+        <v>0.73529999999999995</v>
       </c>
       <c r="AF17" s="2">
         <v>0.68220000000000003</v>
       </c>
-      <c r="AG17" s="2" t="e">
-        <v>#N/A</v>
+      <c r="AG17" s="2">
+        <v>0.62749999999999995</v>
       </c>
       <c r="AH17" s="2">
         <v>0.86539999999999995</v>
       </c>
       <c r="AI17" s="2">
-        <v>0.76090000000000002</v>
+        <v>0.73529999999999995</v>
       </c>
       <c r="AJ17" s="2">
         <v>0.68220000000000003</v>
       </c>
-      <c r="AK17" s="2" t="e">
-        <v>#N/A</v>
+      <c r="AK17" s="2">
+        <v>0.62749999999999995</v>
       </c>
       <c r="AL17" s="2">
-        <v>0.87190000000000001</v>
+        <v>0.88219999999999998</v>
       </c>
       <c r="AM17" s="2">
-        <v>0.83050000000000002</v>
+        <v>0.77849999999999997</v>
       </c>
       <c r="AN17" s="2">
         <v>0.78290000000000004</v>
       </c>
       <c r="AO17" s="2">
-        <v>0.73850000000000005</v>
+        <v>0.70540000000000003</v>
       </c>
       <c r="AP17" s="2">
         <v>0.87190000000000001</v>
       </c>
       <c r="AQ17" s="2">
-        <v>0.83050000000000002</v>
+        <v>0.77849999999999997</v>
       </c>
       <c r="AR17" s="2">
         <v>0.78290000000000004</v>
       </c>
       <c r="AS17" s="2">
-        <v>0.73850000000000005</v>
+        <v>0.70540000000000003</v>
       </c>
       <c r="AT17" s="2">
         <v>0.87190000000000001</v>
       </c>
       <c r="AU17" s="2">
-        <v>0.83050000000000002</v>
+        <v>0.77849999999999997</v>
       </c>
       <c r="AV17" s="2">
         <v>0.78290000000000004</v>
       </c>
       <c r="AW17" s="2">
-        <v>0.73850000000000005</v>
+        <v>0.70540000000000003</v>
       </c>
       <c r="AX17" s="2">
         <v>0.87190000000000001</v>
       </c>
       <c r="AY17" s="2">
-        <v>0.83050000000000002</v>
+        <v>0.82169999999999999</v>
       </c>
       <c r="AZ17" s="2">
         <v>0.78290000000000004</v>
       </c>
       <c r="BA17" s="2">
-        <v>0.73850000000000005</v>
+        <v>0.70540000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
@@ -3331,73 +3319,73 @@
         <v>0.85650000000000004</v>
       </c>
       <c r="AE18" s="2">
-        <v>0.74360000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="AF18" s="2">
         <v>0.65849999999999997</v>
       </c>
-      <c r="AG18" s="2" t="e">
-        <v>#N/A</v>
+      <c r="AG18" s="2">
+        <v>0.60589999999999999</v>
       </c>
       <c r="AH18" s="2">
         <v>0.85650000000000004</v>
       </c>
       <c r="AI18" s="2">
-        <v>0.74360000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="AJ18" s="2">
         <v>0.65849999999999997</v>
       </c>
-      <c r="AK18" s="2" t="e">
-        <v>#N/A</v>
+      <c r="AK18" s="2">
+        <v>0.60589999999999999</v>
       </c>
       <c r="AL18" s="2">
-        <v>0.86309999999999998</v>
+        <v>0.87460000000000004</v>
       </c>
       <c r="AM18" s="2">
-        <v>0.81850000000000001</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="AN18" s="2">
         <v>0.76690000000000003</v>
       </c>
       <c r="AO18" s="2">
-        <v>0.71879999999999999</v>
+        <v>0.68830000000000002</v>
       </c>
       <c r="AP18" s="2">
         <v>0.86309999999999998</v>
       </c>
       <c r="AQ18" s="2">
-        <v>0.81850000000000001</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="AR18" s="2">
         <v>0.76690000000000003</v>
       </c>
       <c r="AS18" s="2">
-        <v>0.71879999999999999</v>
+        <v>0.68830000000000002</v>
       </c>
       <c r="AT18" s="2">
         <v>0.86309999999999998</v>
       </c>
       <c r="AU18" s="2">
-        <v>0.81850000000000001</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="AV18" s="2">
         <v>0.76690000000000003</v>
       </c>
       <c r="AW18" s="2">
-        <v>0.71879999999999999</v>
+        <v>0.68830000000000002</v>
       </c>
       <c r="AX18" s="2">
         <v>0.86309999999999998</v>
       </c>
       <c r="AY18" s="2">
-        <v>0.81850000000000001</v>
+        <v>0.81140000000000001</v>
       </c>
       <c r="AZ18" s="2">
         <v>0.76690000000000003</v>
       </c>
       <c r="BA18" s="2">
-        <v>0.71879999999999999</v>
+        <v>0.68830000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
@@ -3492,73 +3480,73 @@
         <v>0.8478</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.72650000000000003</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="AF19" s="2">
         <v>0.63519999999999999</v>
       </c>
-      <c r="AG19" s="2" t="e">
-        <v>#N/A</v>
+      <c r="AG19" s="2">
+        <v>0.58479999999999999</v>
       </c>
       <c r="AH19" s="2">
         <v>0.8478</v>
       </c>
       <c r="AI19" s="2">
-        <v>0.72650000000000003</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="AJ19" s="2">
         <v>0.63519999999999999</v>
       </c>
-      <c r="AK19" s="2" t="e">
-        <v>#N/A</v>
+      <c r="AK19" s="2">
+        <v>0.58479999999999999</v>
       </c>
       <c r="AL19" s="2">
-        <v>0.85440000000000005</v>
+        <v>0.86709999999999998</v>
       </c>
       <c r="AM19" s="2">
-        <v>0.80679999999999996</v>
+        <v>0.75309999999999999</v>
       </c>
       <c r="AN19" s="2">
         <v>0.75119999999999998</v>
       </c>
       <c r="AO19" s="2">
-        <v>0.69930000000000003</v>
+        <v>0.67159999999999997</v>
       </c>
       <c r="AP19" s="2">
         <v>0.85440000000000005</v>
       </c>
       <c r="AQ19" s="2">
-        <v>0.80679999999999996</v>
+        <v>0.75309999999999999</v>
       </c>
       <c r="AR19" s="2">
         <v>0.75119999999999998</v>
       </c>
       <c r="AS19" s="2">
-        <v>0.69930000000000003</v>
+        <v>0.67159999999999997</v>
       </c>
       <c r="AT19" s="2">
         <v>0.85440000000000005</v>
       </c>
       <c r="AU19" s="2">
-        <v>0.80679999999999996</v>
+        <v>0.75309999999999999</v>
       </c>
       <c r="AV19" s="2">
         <v>0.75119999999999998</v>
       </c>
       <c r="AW19" s="2">
-        <v>0.69930000000000003</v>
+        <v>0.67159999999999997</v>
       </c>
       <c r="AX19" s="2">
         <v>0.85440000000000005</v>
       </c>
       <c r="AY19" s="2">
-        <v>0.80679999999999996</v>
+        <v>0.80130000000000001</v>
       </c>
       <c r="AZ19" s="2">
         <v>0.75119999999999998</v>
       </c>
       <c r="BA19" s="2">
-        <v>0.69930000000000003</v>
+        <v>0.67159999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
@@ -3657,7 +3645,7 @@
         <v>0.83919999999999995</v>
       </c>
       <c r="AE20" s="2">
-        <v>0.7097</v>
+        <v>0.6905</v>
       </c>
       <c r="AF20" s="2">
         <v>0.61209999999999998</v>
@@ -3669,7 +3657,7 @@
         <v>0.83919999999999995</v>
       </c>
       <c r="AI20" s="2">
-        <v>0.7097</v>
+        <v>0.6905</v>
       </c>
       <c r="AJ20" s="2">
         <v>0.61209999999999998</v>
@@ -3678,52 +3666,52 @@
         <v>#N/A</v>
       </c>
       <c r="AL20" s="2">
-        <v>0.8458</v>
+        <v>0.85980000000000001</v>
       </c>
       <c r="AM20" s="2">
-        <v>0.79520000000000002</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="AN20" s="2">
         <v>0.73570000000000002</v>
       </c>
       <c r="AO20" s="2">
-        <v>0.68</v>
+        <v>0.65549999999999997</v>
       </c>
       <c r="AP20" s="2">
         <v>0.8458</v>
       </c>
       <c r="AQ20" s="2">
-        <v>0.79520000000000002</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="AR20" s="2">
         <v>0.73570000000000002</v>
       </c>
       <c r="AS20" s="2">
-        <v>0.68</v>
+        <v>0.65549999999999997</v>
       </c>
       <c r="AT20" s="2">
         <v>0.8458</v>
       </c>
       <c r="AU20" s="2">
-        <v>0.79520000000000002</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="AV20" s="2">
         <v>0.73570000000000002</v>
       </c>
       <c r="AW20" s="2">
-        <v>0.68</v>
+        <v>0.65549999999999997</v>
       </c>
       <c r="AX20" s="2">
         <v>0.8458</v>
       </c>
       <c r="AY20" s="2">
-        <v>0.79520000000000002</v>
+        <v>0.79149999999999998</v>
       </c>
       <c r="AZ20" s="2">
         <v>0.73570000000000002</v>
       </c>
       <c r="BA20" s="2">
-        <v>0.68</v>
+        <v>0.65549999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
@@ -3824,7 +3812,7 @@
         <v>0.83079999999999998</v>
       </c>
       <c r="AE21" s="2">
-        <v>0.69299999999999995</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="AF21" s="2" t="e">
         <v>#N/A</v>
@@ -3836,7 +3824,7 @@
         <v>0.83079999999999998</v>
       </c>
       <c r="AI21" s="2">
-        <v>0.69299999999999995</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="AJ21" s="2" t="e">
         <v>#N/A</v>
@@ -3845,52 +3833,52 @@
         <v>#N/A</v>
       </c>
       <c r="AL21" s="2">
-        <v>0.83740000000000003</v>
+        <v>0.85250000000000004</v>
       </c>
       <c r="AM21" s="2">
-        <v>0.78380000000000005</v>
+        <v>0.72909999999999997</v>
       </c>
       <c r="AN21" s="2">
         <v>0.72030000000000005</v>
       </c>
       <c r="AO21" s="2">
-        <v>0.66100000000000003</v>
+        <v>0.63970000000000005</v>
       </c>
       <c r="AP21" s="2">
         <v>0.83740000000000003</v>
       </c>
       <c r="AQ21" s="2">
-        <v>0.78380000000000005</v>
+        <v>0.72909999999999997</v>
       </c>
       <c r="AR21" s="2">
         <v>0.72030000000000005</v>
       </c>
       <c r="AS21" s="2">
-        <v>0.66100000000000003</v>
+        <v>0.63970000000000005</v>
       </c>
       <c r="AT21" s="2">
         <v>0.83740000000000003</v>
       </c>
       <c r="AU21" s="2">
-        <v>0.78380000000000005</v>
+        <v>0.72909999999999997</v>
       </c>
       <c r="AV21" s="2">
         <v>0.72030000000000005</v>
       </c>
       <c r="AW21" s="2">
-        <v>0.66100000000000003</v>
+        <v>0.63970000000000005</v>
       </c>
       <c r="AX21" s="2">
         <v>0.83740000000000003</v>
       </c>
       <c r="AY21" s="2">
-        <v>0.78380000000000005</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="AZ21" s="2">
         <v>0.72030000000000005</v>
       </c>
       <c r="BA21" s="2">
-        <v>0.66100000000000003</v>
+        <v>0.63970000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.25">
@@ -3991,7 +3979,7 @@
         <v>0.82250000000000001</v>
       </c>
       <c r="AE22" s="2">
-        <v>0.67659999999999998</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="AF22" s="2" t="e">
         <v>#N/A</v>
@@ -4003,7 +3991,7 @@
         <v>0.82250000000000001</v>
       </c>
       <c r="AI22" s="2">
-        <v>0.67659999999999998</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="AJ22" s="2" t="e">
         <v>#N/A</v>
@@ -4012,52 +4000,52 @@
         <v>#N/A</v>
       </c>
       <c r="AL22" s="2">
-        <v>0.82899999999999996</v>
+        <v>0.84540000000000004</v>
       </c>
       <c r="AM22" s="2">
-        <v>0.77249999999999996</v>
+        <v>0.71750000000000003</v>
       </c>
       <c r="AN22" s="2">
         <v>0.70509999999999995</v>
       </c>
       <c r="AO22" s="2">
-        <v>0.6421</v>
+        <v>0.62419999999999998</v>
       </c>
       <c r="AP22" s="2">
         <v>0.82899999999999996</v>
       </c>
       <c r="AQ22" s="2">
-        <v>0.77249999999999996</v>
+        <v>0.71750000000000003</v>
       </c>
       <c r="AR22" s="2">
         <v>0.70509999999999995</v>
       </c>
       <c r="AS22" s="2">
-        <v>0.6421</v>
+        <v>0.62419999999999998</v>
       </c>
       <c r="AT22" s="2">
         <v>0.82899999999999996</v>
       </c>
       <c r="AU22" s="2">
-        <v>0.77249999999999996</v>
+        <v>0.71750000000000003</v>
       </c>
       <c r="AV22" s="2">
         <v>0.70509999999999995</v>
       </c>
       <c r="AW22" s="2">
-        <v>0.6421</v>
+        <v>0.62419999999999998</v>
       </c>
       <c r="AX22" s="2">
         <v>0.82899999999999996</v>
       </c>
       <c r="AY22" s="2">
-        <v>0.77249999999999996</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="AZ22" s="2">
         <v>0.70509999999999995</v>
       </c>
       <c r="BA22" s="2">
-        <v>0.6421</v>
+        <v>0.62419999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
@@ -4158,7 +4146,7 @@
         <v>0.81430000000000002</v>
       </c>
       <c r="AE23" s="2">
-        <v>0.6603</v>
+        <v>0.64890000000000003</v>
       </c>
       <c r="AF23" s="2" t="e">
         <v>#N/A</v>
@@ -4170,7 +4158,7 @@
         <v>0.81430000000000002</v>
       </c>
       <c r="AI23" s="2">
-        <v>0.6603</v>
+        <v>0.64890000000000003</v>
       </c>
       <c r="AJ23" s="2" t="e">
         <v>#N/A</v>
@@ -4179,52 +4167,52 @@
         <v>#N/A</v>
       </c>
       <c r="AL23" s="2">
-        <v>0.82079999999999997</v>
+        <v>0.83840000000000003</v>
       </c>
       <c r="AM23" s="2">
-        <v>0.76129999999999998</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="AN23" s="2">
         <v>0.69010000000000005</v>
       </c>
       <c r="AO23" s="2">
-        <v>0.62329999999999997</v>
+        <v>0.60919999999999996</v>
       </c>
       <c r="AP23" s="2">
         <v>0.82079999999999997</v>
       </c>
       <c r="AQ23" s="2">
-        <v>0.76129999999999998</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="AR23" s="2">
         <v>0.69010000000000005</v>
       </c>
       <c r="AS23" s="2">
-        <v>0.62329999999999997</v>
+        <v>0.60919999999999996</v>
       </c>
       <c r="AT23" s="2">
         <v>0.82079999999999997</v>
       </c>
       <c r="AU23" s="2">
-        <v>0.76129999999999998</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="AV23" s="2">
         <v>0.69010000000000005</v>
       </c>
       <c r="AW23" s="2">
-        <v>0.62329999999999997</v>
+        <v>0.60919999999999996</v>
       </c>
       <c r="AX23" s="2">
         <v>0.82079999999999997</v>
       </c>
       <c r="AY23" s="2">
-        <v>0.76129999999999998</v>
+        <v>0.76349999999999996</v>
       </c>
       <c r="AZ23" s="2">
         <v>0.69010000000000005</v>
       </c>
       <c r="BA23" s="2">
-        <v>0.62329999999999997</v>
+        <v>0.60919999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.25">
@@ -4329,7 +4317,7 @@
         <v>0.80620000000000003</v>
       </c>
       <c r="AE24" s="2">
-        <v>0.64419999999999999</v>
+        <v>0.63570000000000004</v>
       </c>
       <c r="AF24" s="2" t="e">
         <v>#N/A</v>
@@ -4341,7 +4329,7 @@
         <v>0.80620000000000003</v>
       </c>
       <c r="AI24" s="2">
-        <v>0.64419999999999999</v>
+        <v>0.63570000000000004</v>
       </c>
       <c r="AJ24" s="2" t="e">
         <v>#N/A</v>
@@ -4350,52 +4338,52 @@
         <v>#N/A</v>
       </c>
       <c r="AL24" s="2">
-        <v>0.81259999999999999</v>
+        <v>0.83150000000000002</v>
       </c>
       <c r="AM24" s="2">
-        <v>0.75019999999999998</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="AN24" s="2">
         <v>0.67510000000000003</v>
       </c>
       <c r="AO24" s="2">
-        <v>0.6048</v>
+        <v>0.59440000000000004</v>
       </c>
       <c r="AP24" s="2">
         <v>0.81259999999999999</v>
       </c>
       <c r="AQ24" s="2">
-        <v>0.75019999999999998</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="AR24" s="2">
         <v>0.67510000000000003</v>
       </c>
       <c r="AS24" s="2">
-        <v>0.6048</v>
+        <v>0.59440000000000004</v>
       </c>
       <c r="AT24" s="2">
         <v>0.81259999999999999</v>
       </c>
       <c r="AU24" s="2">
-        <v>0.75019999999999998</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="AV24" s="2">
         <v>0.67510000000000003</v>
       </c>
       <c r="AW24" s="2">
-        <v>0.6048</v>
+        <v>0.59440000000000004</v>
       </c>
       <c r="AX24" s="2">
         <v>0.81259999999999999</v>
       </c>
       <c r="AY24" s="2">
-        <v>0.75019999999999998</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="AZ24" s="2">
         <v>0.67510000000000003</v>
       </c>
       <c r="BA24" s="2">
-        <v>0.6048</v>
+        <v>0.59440000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
@@ -4500,7 +4488,7 @@
         <v>0.79820000000000002</v>
       </c>
       <c r="AE25" s="2">
-        <v>0.62819999999999998</v>
+        <v>0.62270000000000003</v>
       </c>
       <c r="AF25" s="2" t="e">
         <v>#N/A</v>
@@ -4512,7 +4500,7 @@
         <v>0.79820000000000002</v>
       </c>
       <c r="AI25" s="2">
-        <v>0.62819999999999998</v>
+        <v>0.62270000000000003</v>
       </c>
       <c r="AJ25" s="2" t="e">
         <v>#N/A</v>
@@ -4521,10 +4509,10 @@
         <v>#N/A</v>
       </c>
       <c r="AL25" s="2">
-        <v>0.80459999999999998</v>
+        <v>0.8246</v>
       </c>
       <c r="AM25" s="2">
-        <v>0.73929999999999996</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="AN25" s="2">
         <v>0.66039999999999999</v>
@@ -4536,7 +4524,7 @@
         <v>0.80459999999999998</v>
       </c>
       <c r="AQ25" s="2">
-        <v>0.73929999999999996</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="AR25" s="2">
         <v>0.66039999999999999</v>
@@ -4548,7 +4536,7 @@
         <v>0.80459999999999998</v>
       </c>
       <c r="AU25" s="2">
-        <v>0.73929999999999996</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="AV25" s="2">
         <v>0.66039999999999999</v>
@@ -4560,7 +4548,7 @@
         <v>0.80459999999999998</v>
       </c>
       <c r="AY25" s="2">
-        <v>0.73929999999999996</v>
+        <v>0.74580000000000002</v>
       </c>
       <c r="AZ25" s="2">
         <v>0.66039999999999999</v>
@@ -4671,7 +4659,7 @@
         <v>0.79020000000000001</v>
       </c>
       <c r="AE26" s="2">
-        <v>0.61229999999999996</v>
+        <v>0.6099</v>
       </c>
       <c r="AF26" s="2" t="e">
         <v>#N/A</v>
@@ -4683,7 +4671,7 @@
         <v>0.79020000000000001</v>
       </c>
       <c r="AI26" s="2">
-        <v>0.61229999999999996</v>
+        <v>0.6099</v>
       </c>
       <c r="AJ26" s="2" t="e">
         <v>#N/A</v>
@@ -4692,10 +4680,10 @@
         <v>#N/A</v>
       </c>
       <c r="AL26" s="2">
-        <v>0.79659999999999997</v>
+        <v>0.81789999999999996</v>
       </c>
       <c r="AM26" s="2">
-        <v>0.72840000000000005</v>
+        <v>0.67349999999999999</v>
       </c>
       <c r="AN26" s="2">
         <v>0.64570000000000005</v>
@@ -4707,7 +4695,7 @@
         <v>0.79659999999999997</v>
       </c>
       <c r="AQ26" s="2">
-        <v>0.72840000000000005</v>
+        <v>0.67349999999999999</v>
       </c>
       <c r="AR26" s="2">
         <v>0.64570000000000005</v>
@@ -4719,7 +4707,7 @@
         <v>0.79659999999999997</v>
       </c>
       <c r="AU26" s="2">
-        <v>0.72840000000000005</v>
+        <v>0.67349999999999999</v>
       </c>
       <c r="AV26" s="2">
         <v>0.64570000000000005</v>
@@ -4731,7 +4719,7 @@
         <v>0.79659999999999997</v>
       </c>
       <c r="AY26" s="2">
-        <v>0.72840000000000005</v>
+        <v>0.73719999999999997</v>
       </c>
       <c r="AZ26" s="2">
         <v>0.64570000000000005</v>
@@ -4854,78 +4842,100 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AD27" s="2">
-        <v>0.78239999999999998</v>
+      <c r="AD27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="AE27" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AF27" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AG27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH27" s="2">
-        <v>0.78239999999999998</v>
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="AI27" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AJ27" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AK27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL27" s="2">
-        <v>0.78859999999999997</v>
-      </c>
-      <c r="AM27" s="2">
-        <v>0.71760000000000002</v>
-      </c>
-      <c r="AN27" s="2">
-        <v>0.63109999999999999</v>
-      </c>
-      <c r="AO27" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AP27" s="2">
-        <v>0.78859999999999997</v>
-      </c>
-      <c r="AQ27" s="2">
-        <v>0.71760000000000002</v>
-      </c>
-      <c r="AR27" s="2">
-        <v>0.63109999999999999</v>
-      </c>
-      <c r="AS27" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AT27" s="2">
-        <v>0.78859999999999997</v>
-      </c>
-      <c r="AU27" s="2">
-        <v>0.71760000000000002</v>
-      </c>
-      <c r="AV27" s="2">
-        <v>0.63109999999999999</v>
-      </c>
-      <c r="AW27" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AX27" s="2">
-        <v>0.78859999999999997</v>
-      </c>
-      <c r="AY27" s="2">
-        <v>0.71760000000000002</v>
-      </c>
-      <c r="AZ27" s="2">
-        <v>0.63109999999999999</v>
-      </c>
-      <c r="BA27" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ27" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA27" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5043,78 +5053,100 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AD28" s="2">
-        <v>0.77459999999999996</v>
+      <c r="AD28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="AE28" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AF28" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AG28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH28" s="2">
-        <v>0.77459999999999996</v>
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="AI28" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AJ28" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AK28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL28" s="2">
-        <v>0.78080000000000005</v>
-      </c>
-      <c r="AM28" s="2">
-        <v>0.70689999999999997</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>0.61670000000000003</v>
-      </c>
-      <c r="AO28" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>0.78080000000000005</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>0.70689999999999997</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>0.61670000000000003</v>
-      </c>
-      <c r="AS28" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>0.78080000000000005</v>
-      </c>
-      <c r="AU28" s="2">
-        <v>0.70689999999999997</v>
-      </c>
-      <c r="AV28" s="2">
-        <v>0.61670000000000003</v>
-      </c>
-      <c r="AW28" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AX28" s="2">
-        <v>0.78080000000000005</v>
-      </c>
-      <c r="AY28" s="2">
-        <v>0.70689999999999997</v>
-      </c>
-      <c r="AZ28" s="2">
-        <v>0.61670000000000003</v>
-      </c>
-      <c r="BA28" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ28" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA28" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5234,78 +5266,100 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AD29" s="2">
-        <v>0.76690000000000003</v>
+      <c r="AD29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="AE29" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AF29" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AG29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH29" s="2">
-        <v>0.76690000000000003</v>
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="AI29" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AJ29" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AK29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL29" s="2">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="AM29" s="2">
-        <v>0.69630000000000003</v>
-      </c>
-      <c r="AN29" s="2">
-        <v>0.60229999999999995</v>
-      </c>
-      <c r="AO29" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AP29" s="2">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="AQ29" s="2">
-        <v>0.69630000000000003</v>
-      </c>
-      <c r="AR29" s="2">
-        <v>0.60229999999999995</v>
-      </c>
-      <c r="AS29" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AT29" s="2">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="AU29" s="2">
-        <v>0.69630000000000003</v>
-      </c>
-      <c r="AV29" s="2">
-        <v>0.60229999999999995</v>
-      </c>
-      <c r="AW29" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AX29" s="2">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="AY29" s="2">
-        <v>0.69630000000000003</v>
-      </c>
-      <c r="AZ29" s="2">
-        <v>0.60229999999999995</v>
-      </c>
-      <c r="BA29" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA29" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5425,78 +5479,100 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AD30" s="2">
-        <v>0.75929999999999997</v>
+      <c r="AD30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="AE30" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AF30" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AG30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH30" s="2">
-        <v>0.75929999999999997</v>
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="AI30" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AJ30" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AK30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL30" s="2">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="AM30" s="2">
-        <v>0.68579999999999997</v>
-      </c>
-      <c r="AN30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AP30" s="2">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="AQ30" s="2">
-        <v>0.68579999999999997</v>
-      </c>
-      <c r="AR30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AS30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AT30" s="2">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="AU30" s="2">
-        <v>0.68579999999999997</v>
-      </c>
-      <c r="AV30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AX30" s="2">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="AY30" s="2">
-        <v>0.68579999999999997</v>
-      </c>
-      <c r="AZ30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BA30" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ30" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA30" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5616,78 +5692,100 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="AD31" s="2">
-        <v>0.75170000000000003</v>
+      <c r="AD31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="AE31" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AF31" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AG31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH31" s="2">
-        <v>0.75170000000000003</v>
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="AI31" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AJ31" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="AK31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AL31" s="2">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="AM31" s="2">
-        <v>0.6754</v>
-      </c>
-      <c r="AN31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>0.6754</v>
-      </c>
-      <c r="AR31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AS31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AT31" s="2">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="AU31" s="2">
-        <v>0.6754</v>
-      </c>
-      <c r="AV31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AX31" s="2">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="AY31" s="2">
-        <v>0.6754</v>
-      </c>
-      <c r="AZ31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BA31" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ31" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA31" t="e">
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/src/Degradation Curves.xlsx
+++ b/src/Degradation Curves.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prevalonenergy-my.sharepoint.com/personal/himanshu_prevalonenergy_com/Documents/I drive/Sizing Tool/DeployWithRender/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{650EDC7B-DF84-4E43-A6A7-4711B3DDD67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7114054B-3538-4EAF-BDFB-96BF541A0C2B}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{650EDC7B-DF84-4E43-A6A7-4711B3DDD67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55E783C-B991-4795-8256-59CBA8E8CB35}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,27 +406,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="AJ38" sqref="AJ38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="29" width="19.42578125" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="37" width="20.5703125" customWidth="1"/>
-    <col min="38" max="39" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="20.5703125" customWidth="1"/>
-    <col min="42" max="43" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="20.5703125" customWidth="1"/>
-    <col min="46" max="47" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="20.5703125" customWidth="1"/>
-    <col min="50" max="51" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="29" width="19.453125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="37" width="20.54296875" customWidth="1"/>
+    <col min="38" max="39" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="20.54296875" customWidth="1"/>
+    <col min="42" max="43" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="20.54296875" customWidth="1"/>
+    <col min="46" max="47" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="20.54296875" customWidth="1"/>
+    <col min="50" max="51" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>HD 511 | 730 | 8 | 0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -812,7 +812,7 @@
         <v>HD 511</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -973,7 +973,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>0.97409999999999997</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.94420000000000004</v>
+        <v>0.95716200408799401</v>
       </c>
       <c r="AF7" s="2">
         <v>0.95289999999999997</v>
@@ -1572,7 +1572,7 @@
         <v>0.97660000000000002</v>
       </c>
       <c r="AM7" s="2">
-        <v>0.95330000000000004</v>
+        <v>0.97130000000000005</v>
       </c>
       <c r="AN7" s="2">
         <v>0.9667</v>
@@ -1617,7 +1617,7 @@
         <v>0.93789999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0.95920000000000005</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.91249999999999998</v>
+        <v>0.92711002392367703</v>
       </c>
       <c r="AF8" s="2">
         <v>0.91949999999999998</v>
@@ -1733,7 +1733,7 @@
         <v>0.96340000000000003</v>
       </c>
       <c r="AM8" s="2">
-        <v>0.92669999999999997</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="AN8" s="2">
         <v>0.94369999999999998</v>
@@ -1778,7 +1778,7 @@
         <v>0.90259999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0.94630000000000003</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.8861</v>
+        <v>0.90048863650709399</v>
       </c>
       <c r="AF9" s="2">
         <v>0.8891</v>
@@ -1894,7 +1894,7 @@
         <v>0.95220000000000005</v>
       </c>
       <c r="AM9" s="2">
-        <v>0.90469999999999995</v>
+        <v>0.93679999999999997</v>
       </c>
       <c r="AN9" s="2">
         <v>0.92290000000000005</v>
@@ -1939,7 +1939,7 @@
         <v>0.87329999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>0.93459999999999999</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.86270000000000002</v>
+        <v>0.87586902416199097</v>
       </c>
       <c r="AF10" s="2">
         <v>0.86050000000000004</v>
@@ -2055,7 +2055,7 @@
         <v>0.94189999999999996</v>
       </c>
       <c r="AM10" s="2">
-        <v>0.8851</v>
+        <v>0.92179999999999995</v>
       </c>
       <c r="AN10" s="2">
         <v>0.90339999999999998</v>
@@ -2100,7 +2100,7 @@
         <v>0.84730000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>0.92349999999999999</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.84130000000000005</v>
+        <v>0.85263502747035302</v>
       </c>
       <c r="AF11" s="2">
         <v>0.83299999999999996</v>
@@ -2216,7 +2216,7 @@
         <v>0.93230000000000002</v>
       </c>
       <c r="AM11" s="2">
-        <v>0.86719999999999997</v>
+        <v>0.90749999999999997</v>
       </c>
       <c r="AN11" s="2">
         <v>0.88480000000000003</v>
@@ -2261,7 +2261,7 @@
         <v>0.82350000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="AE12" s="2">
-        <v>0.82140000000000002</v>
+        <v>0.83044681387133201</v>
       </c>
       <c r="AF12" s="2">
         <v>0.80649999999999999</v>
@@ -2377,7 +2377,7 @@
         <v>0.92320000000000002</v>
       </c>
       <c r="AM12" s="2">
-        <v>0.85050000000000003</v>
+        <v>0.89370000000000005</v>
       </c>
       <c r="AN12" s="2">
         <v>0.86680000000000001</v>
@@ -2422,7 +2422,7 @@
         <v>0.80130000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>7</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>0.90290000000000004</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.80259999999999998</v>
+        <v>0.81709090025682196</v>
       </c>
       <c r="AF13" s="2">
         <v>0.78059999999999996</v>
@@ -2538,7 +2538,7 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="AM13" s="2">
-        <v>0.83479999999999999</v>
+        <v>0.88049999999999995</v>
       </c>
       <c r="AN13" s="2">
         <v>0.84930000000000005</v>
@@ -2583,7 +2583,7 @@
         <v>0.78029999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0.8931</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.78469999999999995</v>
+        <v>0.80342168923843005</v>
       </c>
       <c r="AF14" s="2">
         <v>0.75529999999999997</v>
@@ -2699,7 +2699,7 @@
         <v>0.90610000000000002</v>
       </c>
       <c r="AM14" s="2">
-        <v>0.81979999999999997</v>
+        <v>0.86750000000000005</v>
       </c>
       <c r="AN14" s="2">
         <v>0.83220000000000005</v>
@@ -2744,7 +2744,7 @@
         <v>0.76039999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>0.88370000000000004</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.76759999999999995</v>
+        <v>0.79033405567795501</v>
       </c>
       <c r="AF15" s="2">
         <v>0.73050000000000004</v>
@@ -2860,7 +2860,7 @@
         <v>0.89790000000000003</v>
       </c>
       <c r="AM15" s="2">
-        <v>0.80549999999999999</v>
+        <v>0.85489999999999999</v>
       </c>
       <c r="AN15" s="2">
         <v>0.8155</v>
@@ -2905,7 +2905,7 @@
         <v>0.74139999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>10</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0.87439999999999996</v>
       </c>
       <c r="AE16" s="2">
-        <v>0.75119999999999998</v>
+        <v>0.778748839088793</v>
       </c>
       <c r="AF16" s="2">
         <v>0.70620000000000005</v>
@@ -3021,7 +3021,7 @@
         <v>0.88990000000000002</v>
       </c>
       <c r="AM16" s="2">
-        <v>0.79179999999999995</v>
+        <v>0.84260000000000002</v>
       </c>
       <c r="AN16" s="2">
         <v>0.79900000000000004</v>
@@ -3066,7 +3066,7 @@
         <v>0.72309999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>11</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>0.86539999999999995</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.73529999999999995</v>
+        <v>0.76710447331668696</v>
       </c>
       <c r="AF17" s="2">
         <v>0.68220000000000003</v>
@@ -3182,7 +3182,7 @@
         <v>0.88219999999999998</v>
       </c>
       <c r="AM17" s="2">
-        <v>0.77849999999999997</v>
+        <v>0.83050000000000002</v>
       </c>
       <c r="AN17" s="2">
         <v>0.78290000000000004</v>
@@ -3227,7 +3227,7 @@
         <v>0.70540000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>12</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0.85650000000000004</v>
       </c>
       <c r="AE18" s="2">
-        <v>0.72</v>
+        <v>0.75585183225994002</v>
       </c>
       <c r="AF18" s="2">
         <v>0.65849999999999997</v>
@@ -3343,7 +3343,7 @@
         <v>0.87460000000000004</v>
       </c>
       <c r="AM18" s="2">
-        <v>0.76559999999999995</v>
+        <v>0.81850000000000001</v>
       </c>
       <c r="AN18" s="2">
         <v>0.76690000000000003</v>
@@ -3388,7 +3388,7 @@
         <v>0.68830000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>13</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0.8478</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.70499999999999996</v>
+        <v>0.745450889894826</v>
       </c>
       <c r="AF19" s="2">
         <v>0.63519999999999999</v>
@@ -3504,7 +3504,7 @@
         <v>0.86709999999999998</v>
       </c>
       <c r="AM19" s="2">
-        <v>0.75309999999999999</v>
+        <v>0.80679999999999996</v>
       </c>
       <c r="AN19" s="2">
         <v>0.75119999999999998</v>
@@ -3549,7 +3549,7 @@
         <v>0.67159999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>14</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>0.83919999999999995</v>
       </c>
       <c r="AE20" s="2">
-        <v>0.6905</v>
+        <v>0.73236846515713105</v>
       </c>
       <c r="AF20" s="2">
         <v>0.61209999999999998</v>
@@ -3669,7 +3669,7 @@
         <v>0.85980000000000001</v>
       </c>
       <c r="AM20" s="2">
-        <v>0.74099999999999999</v>
+        <v>0.79520000000000002</v>
       </c>
       <c r="AN20" s="2">
         <v>0.73570000000000002</v>
@@ -3714,7 +3714,7 @@
         <v>0.65549999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>15</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>0.83079999999999998</v>
       </c>
       <c r="AE21" s="2">
-        <v>0.67630000000000001</v>
+        <v>0.72257664684674505</v>
       </c>
       <c r="AF21" s="2" t="e">
         <v>#N/A</v>
@@ -3836,7 +3836,7 @@
         <v>0.85250000000000004</v>
       </c>
       <c r="AM21" s="2">
-        <v>0.72909999999999997</v>
+        <v>0.78380000000000005</v>
       </c>
       <c r="AN21" s="2">
         <v>0.72030000000000005</v>
@@ -3881,7 +3881,7 @@
         <v>0.63970000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>16</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>0.82250000000000001</v>
       </c>
       <c r="AE22" s="2">
-        <v>0.66249999999999998</v>
+        <v>0.71205166178111501</v>
       </c>
       <c r="AF22" s="2" t="e">
         <v>#N/A</v>
@@ -4003,7 +4003,7 @@
         <v>0.84540000000000004</v>
       </c>
       <c r="AM22" s="2">
-        <v>0.71750000000000003</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="AN22" s="2">
         <v>0.70509999999999995</v>
@@ -4048,7 +4048,7 @@
         <v>0.62419999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>17</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>0.81430000000000002</v>
       </c>
       <c r="AE23" s="2">
-        <v>0.64890000000000003</v>
+        <v>0.70177304153884901</v>
       </c>
       <c r="AF23" s="2" t="e">
         <v>#N/A</v>
@@ -4170,7 +4170,7 @@
         <v>0.83840000000000003</v>
       </c>
       <c r="AM23" s="2">
-        <v>0.70620000000000005</v>
+        <v>0.76129999999999998</v>
       </c>
       <c r="AN23" s="2">
         <v>0.69010000000000005</v>
@@ -4215,7 +4215,7 @@
         <v>0.60919999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>18</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>0.80620000000000003</v>
       </c>
       <c r="AE24" s="2">
-        <v>0.63570000000000004</v>
+        <v>0.68472299608932696</v>
       </c>
       <c r="AF24" s="2" t="e">
         <v>#N/A</v>
@@ -4341,7 +4341,7 @@
         <v>0.83150000000000002</v>
       </c>
       <c r="AM24" s="2">
-        <v>0.69510000000000005</v>
+        <v>0.75019999999999998</v>
       </c>
       <c r="AN24" s="2">
         <v>0.67510000000000003</v>
@@ -4386,7 +4386,7 @@
         <v>0.59440000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>19</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0.79820000000000002</v>
       </c>
       <c r="AE25" s="2">
-        <v>0.62270000000000003</v>
+        <v>0.65788593430324205</v>
       </c>
       <c r="AF25" s="2" t="e">
         <v>#N/A</v>
@@ -4512,7 +4512,7 @@
         <v>0.8246</v>
       </c>
       <c r="AM25" s="2">
-        <v>0.68420000000000003</v>
+        <v>0.73929999999999996</v>
       </c>
       <c r="AN25" s="2">
         <v>0.66039999999999999</v>
@@ -4557,7 +4557,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>20</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>0.79020000000000001</v>
       </c>
       <c r="AE26" s="2">
-        <v>0.6099</v>
+        <v>0.63124809098661105</v>
       </c>
       <c r="AF26" s="2" t="e">
         <v>#N/A</v>
@@ -4683,7 +4683,7 @@
         <v>0.81789999999999996</v>
       </c>
       <c r="AM26" s="2">
-        <v>0.67349999999999999</v>
+        <v>0.72840000000000005</v>
       </c>
       <c r="AN26" s="2">
         <v>0.64570000000000005</v>
@@ -4728,7 +4728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>21</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>22</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>23</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>24</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>25</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -6002,6 +6002,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{defa4170-0d19-0005-0004-bc88714345d2}" enabled="1" method="Standard" siteId="{fda0a4a7-3813-444d-808d-54bb327d0367}" contentBits="0" removed="0"/>
+  <clbl:label id="{cb900d8d-e34c-495b-bcac-83a2298b7739}" enabled="1" method="Standard" siteId="{fda0a4a7-3813-444d-808d-54bb327d0367}" removed="0"/>
 </clbl:labelList>
 </file>